--- a/medicine/Premiers secours et secourisme/Moto-ambulance/Moto-ambulance.xlsx
+++ b/medicine/Premiers secours et secourisme/Moto-ambulance/Moto-ambulance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les motos-ambulances sont un type de véhicule d'urgence qui transporte soit un ambulancier seul, soit un premier intervenant auprès d'un patient ; ou qui est utilisé avec une remorque ou un side-car pour le transport des patients. En raison de sa taille et de ses performances, une moto-ambulance est capable de répondre à une urgence médicale beaucoup plus rapidement qu'une voiture, une camionnette ou un camion de pompiers dans une circulation dense[1],[2], ce qui peut augmenter le taux de survie des patients souffrant d'un arrêt cardiaque. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les motos-ambulances sont un type de véhicule d'urgence qui transporte soit un ambulancier seul, soit un premier intervenant auprès d'un patient ; ou qui est utilisé avec une remorque ou un side-car pour le transport des patients. En raison de sa taille et de ses performances, une moto-ambulance est capable de répondre à une urgence médicale beaucoup plus rapidement qu'une voiture, une camionnette ou un camion de pompiers dans une circulation dense ce qui peut augmenter le taux de survie des patients souffrant d'un arrêt cardiaque. 
 </t>
         </is>
       </c>
